--- a/data/income_statement/2digits/size/91_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/91_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>91-Libraries, archives, museums and other cultural activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>91-Libraries, archives, museums and other cultural activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>5114.76827</v>
+        <v>5981.10289</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>3848.5544</v>
+        <v>5453.10788</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>6788.12932</v>
+        <v>7647.025820000001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>6424.838860000001</v>
+        <v>7234.17404</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3748.83803</v>
+        <v>4552.98021</v>
       </c>
       <c r="H5" s="47" t="n">
         <v>11271.98046</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>16168.63548</v>
+        <v>16389.42192</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>11270.40979</v>
+        <v>11787.18823</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>7022.45574</v>
+        <v>11419.6755</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>7275.55109</v>
+        <v>11617.04802</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>13832.75495</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>14631.96788</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>9751.82</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>5016.16663</v>
+        <v>5804.52114</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>3366.5527</v>
+        <v>4970.90618</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>6786.58871</v>
+        <v>7644.72942</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>6396.12318</v>
+        <v>7203.67507</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3745.31269</v>
+        <v>4548.871690000001</v>
       </c>
       <c r="H6" s="48" t="n">
         <v>10788.01691</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>16160.1045</v>
+        <v>16212.215</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>11259.62622</v>
+        <v>11490.8139</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>6836.33077</v>
+        <v>10148.95816</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>7118.3406</v>
+        <v>11458.26465</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>13479.35269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>14251.73058</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>9449.971</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>0</v>
@@ -1052,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>0</v>
+        <v>0.91555</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>0</v>
@@ -1060,50 +976,60 @@
       <c r="M7" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>98.60164</v>
+        <v>176.58175</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>0.80821</v>
+        <v>1.00821</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>1.54061</v>
+        <v>2.2964</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>28.71568</v>
+        <v>30.49897</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>3.52534</v>
+        <v>4.10852</v>
       </c>
       <c r="H8" s="48" t="n">
         <v>75.00192999999999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>8.53098</v>
+        <v>177.20692</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>10.78357</v>
+        <v>296.37433</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>186.12497</v>
+        <v>1269.80179</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>157.21049</v>
+        <v>158.78337</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>353.40226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>380.2373</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>301.769</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>32.41232</v>
@@ -1112,7 +1038,7 @@
         <v>27.84447</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>33.60666000000001</v>
+        <v>57.19392</v>
       </c>
       <c r="F9" s="47" t="n">
         <v>35.91771</v>
@@ -1130,19 +1056,24 @@
         <v>5.997100000000001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>0.60764</v>
+        <v>2668.35624</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1.55096</v>
+        <v>1.73615</v>
       </c>
       <c r="M9" s="47" t="n">
         <v>2.39947</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>65.047</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>5.119479999999999</v>
@@ -1151,7 +1082,7 @@
         <v>6.6209</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>14.59893</v>
+        <v>38.18619</v>
       </c>
       <c r="F10" s="48" t="n">
         <v>3.84589</v>
@@ -1169,19 +1100,24 @@
         <v>5.997100000000001</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>0.60764</v>
+        <v>2668.35624</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1.55096</v>
+        <v>1.73615</v>
       </c>
       <c r="M10" s="48" t="n">
         <v>1.71743</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>65.032</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>27.29284</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>0.68204</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1255,98 +1196,113 @@
       <c r="M12" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>5082.35595</v>
+        <v>5948.690570000001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>3820.70993</v>
+        <v>5425.26341</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>6754.522660000001</v>
+        <v>7589.8319</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>6388.92115</v>
+        <v>7198.25633</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3737.86473</v>
+        <v>4542.00691</v>
       </c>
       <c r="H13" s="47" t="n">
         <v>11252.55354</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>16158.67026</v>
+        <v>16379.4567</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>11264.41269</v>
+        <v>11781.19113</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>7021.848099999999</v>
+        <v>8751.31926</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>7274.000129999999</v>
+        <v>11615.31187</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>13830.35548</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>14629.56841</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>9686.772999999999</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>2032.95663</v>
+        <v>2268.86898</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1095.9506</v>
+        <v>1643.34664</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>3172.01402</v>
+        <v>3503.95351</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1631.86116</v>
+        <v>3019.5083</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2037.12852</v>
+        <v>3300.58355</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3545.56768</v>
+        <v>3546.66169</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>6705.75932</v>
+        <v>6738.23217</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3414.62677</v>
+        <v>3689.89159</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>5400.04414</v>
+        <v>13401.21371</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5695.33632</v>
+        <v>6998.31587</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>10567.60719</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>10745.99924</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>4854.245</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>0</v>
+        <v>190.96864</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>0</v>
+        <v>117.80864</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>246.11699</v>
+        <v>318.63399</v>
       </c>
       <c r="F15" s="48" t="n">
         <v>0.00847</v>
@@ -1367,94 +1323,109 @@
         <v>1001.09848</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>0</v>
+        <v>73.5188</v>
       </c>
       <c r="M15" s="48" t="n">
         <v>35.36594</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>31.376</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>495.66698</v>
+        <v>540.61069</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>393.67342</v>
+        <v>405.71341</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>540.5614399999999</v>
+        <v>601.63438</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>452.26019</v>
+        <v>502.71235</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>284.51045</v>
+        <v>342.56931</v>
       </c>
       <c r="H16" s="48" t="n">
         <v>814.5755799999999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1654.42647</v>
+        <v>1655.04972</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>414.73715</v>
+        <v>419.84338</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>839.72924</v>
+        <v>850.78629</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>866.4712900000001</v>
+        <v>937.90138</v>
       </c>
       <c r="M16" s="48" t="n">
         <v>1828.17257</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="48" t="n">
+        <v>1298.396</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1537.28965</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>702.27718</v>
+        <v>1119.82459</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2382.18725</v>
+        <v>2580.5368</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1179.5925</v>
+        <v>2516.78748</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1752.61807</v>
+        <v>2958.01424</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2656.71159</v>
+        <v>2657.8056</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>5051.33285</v>
+        <v>5083.18245</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>2999.88962</v>
+        <v>3270.04821</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>3559.14261</v>
+        <v>11549.25513</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>4828.86503</v>
+        <v>5986.89569</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>8704.06868</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>8882.460730000001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3524.473</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>0</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>3049.39932</v>
+        <v>3679.82159</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>2724.75933</v>
+        <v>3781.91677</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>3582.50864</v>
+        <v>4085.87839</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>4757.059990000001</v>
+        <v>4178.74803</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1700.73621</v>
+        <v>1241.42336</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>7706.985860000001</v>
+        <v>7705.89185</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>9452.91094</v>
+        <v>9641.22453</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>7849.78592</v>
+        <v>8091.29954</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1621.80396</v>
+        <v>-4649.89445</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1578.66381</v>
+        <v>4616.996</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3262.74829</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3883.56917</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4832.528</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>3806.7435</v>
+        <v>5058.93959</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>3101.06878</v>
+        <v>4551.72476</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>4063.16454</v>
+        <v>5372.91432</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>4727.300639999999</v>
+        <v>4980.18098</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1841.27206</v>
+        <v>2213.6431</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>9541.236929999999</v>
+        <v>9655.09993</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>9069.6495</v>
+        <v>9873.509</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>10202.75793</v>
+        <v>12605.5866</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>4571.02545</v>
+        <v>10257.99027</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>3904.70088</v>
+        <v>13201.47028</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3001.39165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>4772.74615</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>14543.691</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,167 +1592,192 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>310.03432</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>327.6646</v>
+        <v>337.637</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>508.59149</v>
+        <v>553.45448</v>
       </c>
       <c r="F22" s="48" t="n">
         <v>539.9965100000001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>65.56771999999999</v>
+        <v>118.62706</v>
       </c>
       <c r="H22" s="48" t="n">
         <v>802.83213</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1044.41901</v>
+        <v>1056.37009</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>206.18859</v>
+        <v>265.88516</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>425.93093</v>
+        <v>518.55754</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>341.43581</v>
+        <v>351.93705</v>
       </c>
       <c r="M22" s="48" t="n">
         <v>684.91725</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="48" t="n">
+        <v>645.091</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>3496.70918</v>
+        <v>4748.905269999999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>2773.40418</v>
+        <v>4214.087759999999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>3554.57305</v>
+        <v>4819.45984</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>4187.30413</v>
+        <v>4440.18447</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1775.70434</v>
+        <v>2095.01604</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>8738.4048</v>
+        <v>8852.267800000001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>8025.23049</v>
+        <v>8817.13891</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>9996.56934</v>
+        <v>12339.70144</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>4145.09452</v>
+        <v>9739.43273</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>3563.26507</v>
+        <v>12849.53323</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2316.4744</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>4087.8289</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>13898.6</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-757.3441800000001</v>
+        <v>-1379.118</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-376.30945</v>
+        <v>-769.80799</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-480.6559</v>
+        <v>-1287.03593</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>29.75935</v>
+        <v>-801.43295</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-140.53585</v>
+        <v>-972.21974</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-1834.25107</v>
+        <v>-1949.20808</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>383.26144</v>
+        <v>-232.28447</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-2352.97201</v>
+        <v>-4514.28706</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-2949.22149</v>
+        <v>-14907.88472</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-2326.03707</v>
+        <v>-8584.474279999999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>261.35664</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-889.17698</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-9711.163</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>116.20278</v>
+        <v>482.04305</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>61.79609</v>
+        <v>140.30255</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>99.38625999999999</v>
+        <v>284.27322</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>123.45252</v>
+        <v>139.65791</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>25.88265</v>
+        <v>40.81628</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>209.75449</v>
+        <v>228.00662</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>184.46369</v>
+        <v>251.25933</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>54.11665</v>
+        <v>176.06304</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>374.85092</v>
+        <v>2101.63959</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>479.0158</v>
+        <v>692.1948299999999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1833.97401</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1843.10473</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>3202.961</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>38.14845</v>
+        <v>401.99158</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>51.73548</v>
+        <v>130.24194</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>44.32719</v>
+        <v>58.17667</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>11.65664</v>
+        <v>20.4909</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>6.79455</v>
+        <v>10.49449</v>
       </c>
       <c r="H28" s="48" t="n">
         <v>8.7608</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>15.76213</v>
+        <v>15.77287</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>21.66706</v>
+        <v>128.51399</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>32.97401</v>
+        <v>127.66009</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>49.18673</v>
+        <v>154.38723</v>
       </c>
       <c r="M28" s="48" t="n">
         <v>231.00254</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>254.955</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>26.40015</v>
@@ -1957,14 +1988,19 @@
       <c r="M30" s="48" t="n">
         <v>153.30183</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>18.42609</v>
+        <v>19.08832</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>5.620270000000001</v>
@@ -1979,13 +2015,13 @@
         <v>2.57161</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>34.32378</v>
+        <v>52.57591</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>33.34055</v>
+        <v>63.07175</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>14.03896</v>
+        <v>15.42802</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>11.79621</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>57.367</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>94.646</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>23.03501</v>
+        <v>24.36992</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>7.09025</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>12.73353</v>
+        <v>183.77101</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>5.625760000000001</v>
+        <v>12.89452</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>4.70445</v>
+        <v>10.00097</v>
       </c>
       <c r="H32" s="48" t="n">
         <v>111.28585</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>16.30227</v>
+        <v>16.41489</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3.916</v>
+        <v>14.25434</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>329.92961</v>
+        <v>1449.04071</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>30.97508</v>
+        <v>138.95361</v>
       </c>
       <c r="M32" s="48" t="n">
         <v>23.40556</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>227.867</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>10.19308</v>
@@ -2129,73 +2185,83 @@
         <v>3.82436</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>15.31295</v>
+        <v>15.41532</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>11.79704</v>
+        <v>17.73421</v>
       </c>
       <c r="H35" s="48" t="n">
         <v>55.38406</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>119.05874</v>
+        <v>155.99982</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>14.49463</v>
+        <v>17.86669</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>0.15109</v>
+        <v>513.1425800000001</v>
       </c>
       <c r="L35" s="48" t="n">
         <v>398.85399</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1368.89708</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1378.0278</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>2625.493</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>39.25879</v>
+        <v>47.38469</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>25.27551</v>
+        <v>32.83898000000001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>32.27878</v>
+        <v>349.20227</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>17.32545</v>
+        <v>103.75208</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>5.94395</v>
+        <v>10.06222</v>
       </c>
       <c r="H36" s="47" t="n">
         <v>75.72494999999999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>52.80323000000001</v>
+        <v>53.56098</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>18.33476</v>
+        <v>19.27088</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>37.65425</v>
+        <v>2117.14495</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>191.99274</v>
+        <v>422.50995</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1868.09834</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1876.67402</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>123.243</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>0</v>
@@ -2216,10 +2282,10 @@
         <v>0</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>0</v>
+        <v>0.256</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>0</v>
+        <v>0.81045</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>0</v>
@@ -2230,17 +2296,22 @@
       <c r="M37" s="48" t="n">
         <v>0.695</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>0.792</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>15.007</v>
+        <v>22.30654</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>17.33565</v>
+        <v>24.85172</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>25.22721</v>
@@ -2264,16 +2335,21 @@
         <v>16.82072</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>35.07628</v>
+        <v>72.15911</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>1668.4259</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>37.251</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>24.25011</v>
+        <v>25.07647</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>7.931640000000001</v>
+        <v>7.97904</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>7.03374</v>
+        <v>204.42263</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2.26108</v>
+        <v>88.68750999999999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1.75302</v>
+        <v>5.87129</v>
       </c>
       <c r="H40" s="48" t="n">
         <v>43.52353</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>5.594390000000001</v>
+        <v>6.06114</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>0.36857</v>
+        <v>0.49257</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>20.82371</v>
+        <v>1726.33465</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>97.44661000000001</v>
+        <v>288.96734</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>137.99379</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>146.56947</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>85.2</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>0.00168</v>
@@ -2438,10 +2534,10 @@
         <v>0.00822</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>0.01783</v>
+        <v>119.55243</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>0.01655</v>
+        <v>0.01675</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>0.00315</v>
@@ -2450,103 +2546,118 @@
         <v>0.32239</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>0.00578</v>
+        <v>0.04078</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>0.04782</v>
+        <v>0.04949</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>0.009820000000000001</v>
+        <v>373.98958</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>59.46985</v>
+        <v>61.3835</v>
       </c>
       <c r="M43" s="48" t="n">
         <v>60.98365</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>9.95988</v>
+        <v>56.90038</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>30.95384</v>
+        <v>117.47968</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>19.34739</v>
+        <v>83.99635000000001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>12.64195</v>
+        <v>41.4047</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>48.03154</v>
+        <v>49.56558</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>27.61342</v>
+        <v>27.67842</v>
       </c>
       <c r="I44" s="47" t="n">
         <v>27.45304</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>0.14438</v>
+        <v>13.32468</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>29.10823</v>
+        <v>1236.78755</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>7.90285</v>
+        <v>2368.97851</v>
       </c>
       <c r="M44" s="47" t="n">
         <v>620.6208800000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" s="47" t="n">
+        <v>1493.023</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>9.95988</v>
+        <v>56.90038</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>30.45384</v>
+        <v>116.97968</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>19.34739</v>
+        <v>83.99635000000001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>12.64195</v>
+        <v>26.85998</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>2.04358</v>
+        <v>3.57762</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>17.51136</v>
+        <v>17.57636</v>
       </c>
       <c r="I45" s="48" t="n">
         <v>27.45304</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>0.14438</v>
+        <v>13.32468</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>29.10823</v>
+        <v>1236.78755</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>7.90285</v>
+        <v>2368.97851</v>
       </c>
       <c r="M45" s="48" t="n">
         <v>620.6208800000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" s="48" t="n">
+        <v>1493.023</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>0</v>
@@ -2558,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>0</v>
+        <v>14.54472</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>45.98796</v>
@@ -2581,89 +2692,104 @@
       <c r="M46" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-690.36007</v>
+        <v>-1001.36002</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-370.74271</v>
+        <v>-779.8240999999999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-432.89581</v>
+        <v>-1435.96133</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>123.24447</v>
+        <v>-806.9318199999999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-168.62869</v>
+        <v>-991.03126</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-1727.83495</v>
+        <v>-1824.60483</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>487.46886</v>
+        <v>-62.03916</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-2317.3345</v>
+        <v>-4370.81958</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-2641.13305</v>
+        <v>-16160.17763</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-2046.91686</v>
+        <v>-10683.76791</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-393.38857</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-1543.36715</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-8124.468</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>101.93225</v>
+        <v>108.70166</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>36.44788</v>
+        <v>41.18639</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>53.26388</v>
+        <v>53.27011</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>11.25418</v>
+        <v>25.19038</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>23.73347</v>
+        <v>28.83124</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>90.86739</v>
+        <v>93.77477</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>8.32765</v>
+        <v>25.15911</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>135.82558</v>
+        <v>136.00821</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>71.95389999999999</v>
+        <v>124.81902</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>95.34464</v>
+        <v>308.27394</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>230.08236</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>244.44141</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>343.59</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0</v>
@@ -2698,89 +2824,104 @@
       <c r="M49" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>101.93225</v>
+        <v>108.70166</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>36.44788</v>
+        <v>41.18639</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>53.26388</v>
+        <v>53.27011</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>11.25418</v>
+        <v>25.19038</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>23.73347</v>
+        <v>28.83124</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>90.86739</v>
+        <v>93.77477</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>8.32765</v>
+        <v>25.15911</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>135.82558</v>
+        <v>136.00821</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>71.39113999999999</v>
+        <v>124.25626</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>95.34464</v>
+        <v>308.27394</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>230.08236</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>244.44141</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>343.59</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>4.78719</v>
+        <v>19.97047</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>36.86387999999999</v>
+        <v>38.38180999999999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>61.54293</v>
+        <v>61.78949</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>41.37345</v>
+        <v>47.99765</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>30.37669</v>
+        <v>38.47332</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>31.03042</v>
+        <v>38.53098000000001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>68.01761</v>
+        <v>72.90902</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>110.09394</v>
+        <v>304.44898</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>93.24246000000001</v>
+        <v>104.81404</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>148.09407</v>
+        <v>239.33379</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>269.64098</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>270.11972</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>3748.343</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2801,10 +2942,10 @@
         <v>0</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>0</v>
+        <v>3.94427</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>0</v>
+        <v>15.96929</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>2.19334</v>
@@ -2854,98 +3000,113 @@
       <c r="M53" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>2.034</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>2.59385</v>
+        <v>17.77713</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>36.86387999999999</v>
+        <v>38.38180999999999</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>61.54293</v>
+        <v>61.78949</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>41.37345</v>
+        <v>47.99765</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>29.12123</v>
+        <v>37.21786</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>30.26682</v>
+        <v>37.76738</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>67.24146</v>
+        <v>68.18860000000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>109.98154</v>
+        <v>288.36729</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>92.80574</v>
+        <v>104.37732</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>147.4955</v>
+        <v>238.73522</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>269.64098</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>270.11972</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>3746.309</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-593.21501</v>
+        <v>-912.62883</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-371.15871</v>
+        <v>-777.0195200000001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-441.17486</v>
+        <v>-1444.48071</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>93.12519999999999</v>
+        <v>-829.7390899999999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-175.27191</v>
+        <v>-1000.67334</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-1667.99798</v>
+        <v>-1769.36104</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>427.7789</v>
+        <v>-109.78907</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-2291.60286</v>
+        <v>-4539.26035</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-2662.42161</v>
+        <v>-16140.17265</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-2099.66629</v>
+        <v>-10614.82776</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-432.94719</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-1569.04546</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-11529.221</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>50.16654</v>
+        <v>50.77375</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>23.15634</v>
+        <v>26.73074</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>25.08836</v>
+        <v>32.14236</v>
       </c>
       <c r="F56" s="47" t="n">
         <v>26.40715</v>
@@ -2957,61 +3118,69 @@
         <v>93.13435000000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>164.90888</v>
+        <v>165.8334</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>74.11259</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>100.12766</v>
+        <v>139.04336</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>141.87124</v>
+        <v>143.39315</v>
       </c>
       <c r="M56" s="47" t="n">
         <v>549.84698</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" s="47" t="n">
+        <v>805.458</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-643.3815500000001</v>
+        <v>-963.4025799999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-394.31505</v>
+        <v>-803.75026</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-466.26322</v>
+        <v>-1476.62307</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>66.71805000000001</v>
+        <v>-856.14624</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-263.40141</v>
+        <v>-1088.80284</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-1761.13233</v>
+        <v>-1862.49539</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>262.87002</v>
+        <v>-275.62247</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-2365.71545</v>
+        <v>-4613.37294</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-2762.54927</v>
+        <v>-16279.21601</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-2241.53753</v>
+        <v>-10758.22091</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-982.79417</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-2118.89244</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-12334.679</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>57</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>